--- a/config/acquisitionConfig/roi.csv.xlsx
+++ b/config/acquisitionConfig/roi.csv.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Work\MuscleMuseum\config\acquisitionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\_Li\Machine Code\MuscleMuseum\.config\acquisitionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B580871-9AF1-48FA-B01E-79EC7F4EECF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00025E33-BF68-4E5E-AF5B-1661FA745351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="473">
   <si>
     <t>Angle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>EvapDOdt1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvapDOdt2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EvapDOdt3</t>
+  </si>
+  <si>
+    <t>SideOdtCamera</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
     <t>SubRoiCenterSize</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,34 +91,1391 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[1 1]</t>
-  </si>
-  <si>
-    <t>[100 100]</t>
-  </si>
-  <si>
-    <t>Test</t>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NILatticeKd</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeBO</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>[983 1564 50 50;1070 1581 50 50]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiSlosh</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiSlosh</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiSlosh</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeBandMapSubROIs</t>
+  </si>
+  <si>
+    <t>[983 1560 30 100;1167 1596 100 100;806 1526 100 100;923 1549 50 100;1031 1569 40 100]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeMagicAi</t>
+  </si>
+  <si>
+    <t>[897 1572 100 50;995 1591 100 50;1142 1619 150 50]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>BMPDloop</t>
+  </si>
+  <si>
+    <t>[1064 1611 200 40]</t>
+  </si>
+  <si>
+    <t>[2 1]</t>
+  </si>
+  <si>
+    <t>[200 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>[975 1588 50 50]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[130 100]</t>
+  </si>
+  <si>
+    <t>BMPDloopTof3000</t>
+  </si>
+  <si>
+    <t>[1015 1602 260 50]</t>
+  </si>
+  <si>
+    <t>[2 1]</t>
+  </si>
+  <si>
+    <t>[340 100]</t>
+  </si>
+  <si>
+    <t>PdBoBm</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>PDBO</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>PDBO</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiBecTof3000</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiBecTof4000</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>BecCameraSBB</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>[989 1570 50 50]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[130 100]</t>
+  </si>
+  <si>
+    <t>BMPDloopTof3000</t>
+  </si>
+  <si>
+    <t>[1019 1582 260 50]</t>
+  </si>
+  <si>
+    <t>[2 1]</t>
+  </si>
+  <si>
+    <t>[340 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>[1008 1574 80 50]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[130 100]</t>
+  </si>
+  <si>
+    <t>BMPDloopTof3000xvlattice2</t>
+  </si>
+  <si>
+    <t>[1019 1582 310 50]</t>
+  </si>
+  <si>
+    <t>[2 1]</t>
+  </si>
+  <si>
+    <t>[380 100]</t>
+  </si>
+  <si>
+    <t>BMPDloopTof3000xvlattice2</t>
+  </si>
+  <si>
+    <t>[1019 1582 310 50]</t>
+  </si>
+  <si>
+    <t>[2 1]</t>
+  </si>
+  <si>
+    <t>[450 100]</t>
+  </si>
+  <si>
+    <t>BMPDloopTof3000xvlattice2</t>
+  </si>
+  <si>
+    <t>[1058 1590 310 50]</t>
+  </si>
+  <si>
+    <t>[2 1]</t>
+  </si>
+  <si>
+    <t>[450 100]</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiSlosh</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NILatticeKd</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NILatticeKd</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>[1003 1498 80 50]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[130 100]</t>
+  </si>
+  <si>
+    <t>BMPDloopTof3000</t>
+  </si>
+  <si>
+    <t>[1034 1504 260 50]</t>
+  </si>
+  <si>
+    <t>[2 1]</t>
+  </si>
+  <si>
+    <t>[340 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeBO</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>[1004 1498 100 50]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[130 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>[1004 1498 100 50]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[130 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>[1004 1498 100 50]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[130 100]</t>
+  </si>
+  <si>
+    <t>BMPDloopTof8000</t>
+  </si>
+  <si>
+    <t>[998 1382 260 80]</t>
+  </si>
+  <si>
+    <t>[2 1]</t>
+  </si>
+  <si>
+    <t>[750 100]</t>
+  </si>
+  <si>
+    <t>BMPDloopTof8000</t>
+  </si>
+  <si>
+    <t>[998 1382 260 80]</t>
+  </si>
+  <si>
+    <t>[2 1]</t>
+  </si>
+  <si>
+    <t>[750 100]</t>
+  </si>
+  <si>
+    <t>BMPDloopTof8000</t>
+  </si>
+  <si>
+    <t>[998 1382 260 80]</t>
+  </si>
+  <si>
+    <t>[2 1]</t>
+  </si>
+  <si>
+    <t>[750 100]</t>
+  </si>
+  <si>
+    <t>BMPDloopTof8000</t>
+  </si>
+  <si>
+    <t>[998 1382 260 80]</t>
+  </si>
+  <si>
+    <t>[2 1]</t>
+  </si>
+  <si>
+    <t>[750 100]</t>
+  </si>
+  <si>
+    <t>BMPDloopTof8000</t>
+  </si>
+  <si>
+    <t>[998 1382 260 100]</t>
+  </si>
+  <si>
+    <t>[2 1]</t>
+  </si>
+  <si>
+    <t>[750 100]</t>
+  </si>
+  <si>
+    <t>BMPDloopTof8000</t>
+  </si>
+  <si>
+    <t>[1014 1405 150 100]</t>
+  </si>
+  <si>
+    <t>[2 1]</t>
+  </si>
+  <si>
+    <t>[750 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>[1004 1498 100 50]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[130 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalibTof8000</t>
+  </si>
+  <si>
+    <t>[1024 1401 100 80]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[340 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalibTof8000</t>
+  </si>
+  <si>
+    <t>[1024 1401 100 80]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[340 100]</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>[1132 981 100 50]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[130 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>[1132 981 100 50]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[130 100]</t>
+  </si>
+  <si>
+    <t>NILatticeKd</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>[1132 981 100 100]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[130 100]</t>
+  </si>
+  <si>
+    <t>NILatticeKd</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>[1091 939 100 100]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[130 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeBoBm</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>[1093 837 100 100]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[130 100]</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>[1209 1239 100 100]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[130 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>[1200 1242 100 100]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[130 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeBoBm</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NILatticeKd</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>[937 1344 100 100]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[130 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>[937 1344 100 100]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[130 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>[937 1344 100 100]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[170 100]</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NILatticeKd</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>[937 1344 100 100]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[170 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>[1000 1357 100 100]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[170 100]</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NILatticeKd</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NILatticeKd</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeBoBm</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>[998 1357 130 100]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[170 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeBoBm</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>BMPDloopTof3000</t>
+  </si>
+  <si>
+    <t>[857 1387 260 50]</t>
+  </si>
+  <si>
+    <t>[2 1]</t>
+  </si>
+  <si>
+    <t>[560 100]</t>
+  </si>
+  <si>
+    <t>BMPDloopTof3000</t>
+  </si>
+  <si>
+    <t>[857 1387 260 75]</t>
+  </si>
+  <si>
+    <t>[2 1]</t>
+  </si>
+  <si>
+    <t>[560 100]</t>
+  </si>
+  <si>
+    <t>BMPDloopTof5000</t>
+  </si>
+  <si>
+    <t>[872 1418 260 75]</t>
+  </si>
+  <si>
+    <t>[2 1]</t>
+  </si>
+  <si>
+    <t>[560 100]</t>
+  </si>
+  <si>
+    <t>BMPDloopTof5000</t>
+  </si>
+  <si>
+    <t>[892 1417 170 85]</t>
+  </si>
+  <si>
+    <t>[2 1]</t>
+  </si>
+  <si>
+    <t>[700 100]</t>
+  </si>
+  <si>
+    <t>BMPDloopTof5000</t>
+  </si>
+  <si>
+    <t>[891 1407 170 85]</t>
+  </si>
+  <si>
+    <t>[2 1]</t>
+  </si>
+  <si>
+    <t>[700 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalibTof6000</t>
+  </si>
+  <si>
+    <t>[967 1410 130 100]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[270 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalibTof5000</t>
+  </si>
+  <si>
+    <t>[967 1410 130 100]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[270 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeBoBmTof5000</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>BMPDloopTof5000</t>
+  </si>
+  <si>
+    <t>[891 1407 180 85]</t>
+  </si>
+  <si>
+    <t>[2 1]</t>
+  </si>
+  <si>
+    <t>[700 100]</t>
+  </si>
+  <si>
+    <t>BMPDloopTof5000</t>
+  </si>
+  <si>
+    <t>[891 1407 180 100]</t>
+  </si>
+  <si>
+    <t>[2 1]</t>
+  </si>
+  <si>
+    <t>[750 100]</t>
+  </si>
+  <si>
+    <t>BMPDloopTof5000</t>
+  </si>
+  <si>
+    <t>[941 1405 180 100]</t>
+  </si>
+  <si>
+    <t>[2 1]</t>
+  </si>
+  <si>
+    <t>[750 100]</t>
+  </si>
+  <si>
+    <t>EvapDOdt1</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>HfBecFullTof</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>HfBecFullTof</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalibTof5000</t>
+  </si>
+  <si>
+    <t>[1024 1328 130 100]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[270 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalibTof5000</t>
+  </si>
+  <si>
+    <t>[1024 1328 130 120]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[270 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeBoBmTof5000</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeBoBmTof5000</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>BMPDloopTof5000</t>
+  </si>
+  <si>
+    <t>[939 1345 180 100]</t>
+  </si>
+  <si>
+    <t>[2 1]</t>
+  </si>
+  <si>
+    <t>[750 100]</t>
+  </si>
+  <si>
+    <t>BMPDloopTof4000</t>
+  </si>
+  <si>
+    <t>[939 1345 180 100]</t>
+  </si>
+  <si>
+    <t>[2 1]</t>
+  </si>
+  <si>
+    <t>[600 100]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -112,7 +1489,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,15 +1497,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -406,28 +1785,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.86328125" customWidth="1"/>
-    <col min="2" max="5" width="5.1328125" customWidth="1"/>
-    <col min="6" max="6" width="11.1328125" customWidth="1"/>
-    <col min="7" max="7" width="11.265625" customWidth="1"/>
-    <col min="8" max="8" width="6.265625" customWidth="1"/>
-    <col min="9" max="9" width="75.265625" customWidth="1"/>
-    <col min="10" max="10" width="19.3984375" customWidth="1"/>
-    <col min="11" max="11" width="16.86328125" customWidth="1"/>
-    <col min="12" max="12" width="3.1328125" customWidth="1"/>
-    <col min="13" max="14" width="2.1328125" customWidth="1"/>
-    <col min="15" max="16" width="4.1328125" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="true"/>
+    <col min="2" max="2" width="5.140625" customWidth="true"/>
+    <col min="6" max="6" width="11.140625" customWidth="true"/>
+    <col min="7" max="7" width="11.28515625" customWidth="true"/>
+    <col min="8" max="8" width="6.28515625" customWidth="true"/>
+    <col min="9" max="9" width="75.28515625" customWidth="true"/>
+    <col min="10" max="10" width="19.42578125" customWidth="true"/>
+    <col min="11" max="11" width="16.85546875" customWidth="true"/>
+    <col min="12" max="12" width="3.140625" customWidth="true"/>
+    <col min="13" max="14" width="2.140625" customWidth="true"/>
+    <col min="15" max="16" width="4.140625" customWidth="true"/>
+    <col min="3" max="3" width="5.140625" customWidth="true"/>
+    <col min="4" max="4" width="5.140625" customWidth="true"/>
+    <col min="5" max="5" width="5.140625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -453,48 +1835,1019 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B2" s="0">
+        <v>334</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1668</v>
+      </c>
+      <c r="D2" s="0">
+        <v>530</v>
+      </c>
+      <c r="E2" s="0">
+        <v>1970</v>
+      </c>
+      <c r="F2" s="0">
+        <v>2160</v>
+      </c>
+      <c r="G2" s="0">
+        <v>2560</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B3">
+        <v>550</v>
+      </c>
+      <c r="C3">
+        <v>1350</v>
+      </c>
+      <c r="D3">
+        <v>1250</v>
+      </c>
+      <c r="E3">
+        <v>2000</v>
+      </c>
+      <c r="F3">
+        <v>2160</v>
+      </c>
+      <c r="G3">
+        <v>2560</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="B4">
+        <v>750</v>
+      </c>
+      <c r="C4">
+        <v>1250</v>
+      </c>
+      <c r="D4">
+        <v>1400</v>
+      </c>
+      <c r="E4">
+        <v>1850</v>
+      </c>
+      <c r="F4">
         <v>2160</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="G4">
         <v>2560</v>
       </c>
-      <c r="F2">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" s="0">
+        <v>911</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1183</v>
+      </c>
+      <c r="D5" s="0">
+        <v>1235</v>
+      </c>
+      <c r="E5" s="0">
+        <v>1511</v>
+      </c>
+      <c r="F5" s="0">
         <v>2160</v>
       </c>
-      <c r="G2">
+      <c r="G5" s="0">
         <v>2560</v>
       </c>
-      <c r="H2">
+      <c r="H5" s="0">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>301</v>
+      </c>
+      <c r="C6">
+        <v>645</v>
+      </c>
+      <c r="D6">
+        <v>654</v>
+      </c>
+      <c r="E6">
+        <v>1018</v>
+      </c>
+      <c r="F6">
+        <v>1080</v>
+      </c>
+      <c r="G6">
+        <v>1920</v>
+      </c>
+      <c r="H6">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" s="0">
+        <v>778</v>
+      </c>
+      <c r="C7" s="0">
+        <v>1372</v>
+      </c>
+      <c r="D7" s="0">
+        <v>1286</v>
+      </c>
+      <c r="E7" s="0">
+        <v>1442</v>
+      </c>
+      <c r="F7" s="0">
+        <v>2160</v>
+      </c>
+      <c r="G7" s="0">
+        <v>2560</v>
+      </c>
+      <c r="H7" s="0">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" s="0">
+        <v>708</v>
+      </c>
+      <c r="C8" s="0">
+        <v>1400</v>
+      </c>
+      <c r="D8" s="0">
+        <v>1346</v>
+      </c>
+      <c r="E8" s="0">
+        <v>1400</v>
+      </c>
+      <c r="F8" s="0">
+        <v>2160</v>
+      </c>
+      <c r="G8" s="0">
+        <v>2560</v>
+      </c>
+      <c r="H8" s="0">
+        <v>2.3000000000000003</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="0">
+        <v>997</v>
+      </c>
+      <c r="C9" s="0">
+        <v>1681</v>
+      </c>
+      <c r="D9" s="0">
+        <v>1643</v>
+      </c>
+      <c r="E9" s="0">
+        <v>1751</v>
+      </c>
+      <c r="F9" s="0">
+        <v>2160</v>
+      </c>
+      <c r="G9" s="0">
+        <v>2560</v>
+      </c>
+      <c r="H9" s="0">
+        <v>349.10000000000002</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="0">
+        <v>903</v>
+      </c>
+      <c r="C10" s="0">
+        <v>1891</v>
+      </c>
+      <c r="D10" s="0">
+        <v>1690</v>
+      </c>
+      <c r="E10" s="0">
+        <v>1740</v>
+      </c>
+      <c r="F10" s="0">
+        <v>2160</v>
+      </c>
+      <c r="G10" s="0">
+        <v>2560</v>
+      </c>
+      <c r="H10" s="0">
+        <v>349.10000000000002</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="0">
+        <v>917</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1589</v>
+      </c>
+      <c r="D11" s="0">
+        <v>1634</v>
+      </c>
+      <c r="E11" s="0">
+        <v>1882</v>
+      </c>
+      <c r="F11" s="0">
+        <v>2160</v>
+      </c>
+      <c r="G11" s="0">
+        <v>2560</v>
+      </c>
+      <c r="H11" s="0">
+        <v>349.10000000000002</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="0">
+        <v>1016</v>
+      </c>
+      <c r="C12" s="0">
+        <v>1534</v>
+      </c>
+      <c r="D12" s="0">
+        <v>1755</v>
+      </c>
+      <c r="E12" s="0">
+        <v>1811</v>
+      </c>
+      <c r="F12" s="0">
+        <v>2160</v>
+      </c>
+      <c r="G12" s="0">
+        <v>2560</v>
+      </c>
+      <c r="H12" s="0">
+        <v>349.10000000000002</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="0">
+        <v>974</v>
+      </c>
+      <c r="C13" s="0">
+        <v>1554</v>
+      </c>
+      <c r="D13" s="0">
+        <v>1754</v>
+      </c>
+      <c r="E13" s="0">
+        <v>1830</v>
+      </c>
+      <c r="F13" s="0">
+        <v>2160</v>
+      </c>
+      <c r="G13" s="0">
+        <v>2560</v>
+      </c>
+      <c r="H13" s="0">
+        <v>349.10000000000002</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="B14" s="0">
+        <v>759</v>
+      </c>
+      <c r="C14" s="0">
+        <v>1313</v>
+      </c>
+      <c r="D14" s="0">
+        <v>1236</v>
+      </c>
+      <c r="E14" s="0">
+        <v>1556</v>
+      </c>
+      <c r="F14" s="0">
+        <v>2160</v>
+      </c>
+      <c r="G14" s="0">
+        <v>2560</v>
+      </c>
+      <c r="H14" s="0">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B15" s="0">
+        <v>490</v>
+      </c>
+      <c r="C15" s="0">
+        <v>1352</v>
+      </c>
+      <c r="D15" s="0">
+        <v>1341</v>
+      </c>
+      <c r="E15" s="0">
+        <v>1483</v>
+      </c>
+      <c r="F15" s="0">
+        <v>2160</v>
+      </c>
+      <c r="G15" s="0">
+        <v>2560</v>
+      </c>
+      <c r="H15" s="0">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="0">
+        <v>994</v>
+      </c>
+      <c r="C16" s="0">
+        <v>1588</v>
+      </c>
+      <c r="D16" s="0">
+        <v>1746</v>
+      </c>
+      <c r="E16" s="0">
+        <v>1822</v>
+      </c>
+      <c r="F16" s="0">
+        <v>2160</v>
+      </c>
+      <c r="G16" s="0">
+        <v>2560</v>
+      </c>
+      <c r="H16" s="0">
+        <v>349.10000000000002</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="0">
+        <v>1172</v>
+      </c>
+      <c r="C17" s="0">
+        <v>1332</v>
+      </c>
+      <c r="D17" s="0">
+        <v>1781</v>
+      </c>
+      <c r="E17" s="0">
+        <v>1819</v>
+      </c>
+      <c r="F17" s="0">
+        <v>2160</v>
+      </c>
+      <c r="G17" s="0">
+        <v>2560</v>
+      </c>
+      <c r="H17" s="0">
+        <v>349.10000000000002</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="0">
+        <v>1216</v>
+      </c>
+      <c r="C18" s="0">
+        <v>1314</v>
+      </c>
+      <c r="D18" s="0">
+        <v>1734</v>
+      </c>
+      <c r="E18" s="0">
+        <v>1824</v>
+      </c>
+      <c r="F18" s="0">
+        <v>2160</v>
+      </c>
+      <c r="G18" s="0">
+        <v>2560</v>
+      </c>
+      <c r="H18" s="0">
+        <v>349.10000000000002</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="0">
+        <v>1187</v>
+      </c>
+      <c r="C19" s="0">
+        <v>1343</v>
+      </c>
+      <c r="D19" s="0">
+        <v>1690</v>
+      </c>
+      <c r="E19" s="0">
+        <v>1816</v>
+      </c>
+      <c r="F19" s="0">
+        <v>2160</v>
+      </c>
+      <c r="G19" s="0">
+        <v>2560</v>
+      </c>
+      <c r="H19" s="0">
+        <v>349.10000000000002</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="0">
+        <v>243</v>
+      </c>
+      <c r="C20" s="0">
+        <v>583</v>
+      </c>
+      <c r="D20" s="0">
+        <v>678</v>
+      </c>
+      <c r="E20" s="0">
+        <v>988</v>
+      </c>
+      <c r="F20" s="0">
+        <v>1080</v>
+      </c>
+      <c r="G20" s="0">
+        <v>1920</v>
+      </c>
+      <c r="H20" s="0">
+        <v>0</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="0">
+        <v>824</v>
+      </c>
+      <c r="C21" s="0">
+        <v>1766</v>
+      </c>
+      <c r="D21" s="0">
+        <v>1704</v>
+      </c>
+      <c r="E21" s="0">
+        <v>1880</v>
+      </c>
+      <c r="F21" s="0">
+        <v>2160</v>
+      </c>
+      <c r="G21" s="0">
+        <v>2560</v>
+      </c>
+      <c r="H21" s="0">
+        <v>349.10000000000002</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="0">
+        <v>703</v>
+      </c>
+      <c r="C22" s="0">
+        <v>1785</v>
+      </c>
+      <c r="D22" s="0">
+        <v>1490</v>
+      </c>
+      <c r="E22" s="0">
+        <v>1668</v>
+      </c>
+      <c r="F22" s="0">
+        <v>2160</v>
+      </c>
+      <c r="G22" s="0">
+        <v>2560</v>
+      </c>
+      <c r="H22" s="0">
+        <v>349.10000000000002</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" s="0">
+        <v>747</v>
+      </c>
+      <c r="C23" s="0">
+        <v>1801</v>
+      </c>
+      <c r="D23" s="0">
+        <v>1440</v>
+      </c>
+      <c r="E23" s="0">
+        <v>1724</v>
+      </c>
+      <c r="F23" s="0">
+        <v>2160</v>
+      </c>
+      <c r="G23" s="0">
+        <v>2560</v>
+      </c>
+      <c r="H23" s="0">
+        <v>349.10000000000002</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B24" s="0">
+        <v>510</v>
+      </c>
+      <c r="C24" s="0">
+        <v>1468</v>
+      </c>
+      <c r="D24" s="0">
+        <v>1333</v>
+      </c>
+      <c r="E24" s="0">
+        <v>1459</v>
+      </c>
+      <c r="F24" s="0">
+        <v>2160</v>
+      </c>
+      <c r="G24" s="0">
+        <v>2560</v>
+      </c>
+      <c r="H24" s="0">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="B25" s="0">
+        <v>487</v>
+      </c>
+      <c r="C25" s="0">
+        <v>1545</v>
+      </c>
+      <c r="D25" s="0">
+        <v>1299</v>
+      </c>
+      <c r="E25" s="0">
+        <v>1473</v>
+      </c>
+      <c r="F25" s="0">
+        <v>2160</v>
+      </c>
+      <c r="G25" s="0">
+        <v>2560</v>
+      </c>
+      <c r="H25" s="0">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B26" s="0">
+        <v>634</v>
+      </c>
+      <c r="C26" s="0">
+        <v>1422</v>
+      </c>
+      <c r="D26" s="0">
+        <v>1333</v>
+      </c>
+      <c r="E26" s="0">
+        <v>1563</v>
+      </c>
+      <c r="F26" s="0">
+        <v>2160</v>
+      </c>
+      <c r="G26" s="0">
+        <v>2560</v>
+      </c>
+      <c r="H26" s="0">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B27" s="0">
+        <v>709</v>
+      </c>
+      <c r="C27" s="0">
+        <v>1419</v>
+      </c>
+      <c r="D27" s="0">
+        <v>1287</v>
+      </c>
+      <c r="E27" s="0">
+        <v>1445</v>
+      </c>
+      <c r="F27" s="0">
+        <v>2160</v>
+      </c>
+      <c r="G27" s="0">
+        <v>2560</v>
+      </c>
+      <c r="H27" s="0">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B28" s="0">
+        <v>648</v>
+      </c>
+      <c r="C28" s="0">
+        <v>1374</v>
+      </c>
+      <c r="D28" s="0">
+        <v>1297</v>
+      </c>
+      <c r="E28" s="0">
+        <v>1443</v>
+      </c>
+      <c r="F28" s="0">
+        <v>2160</v>
+      </c>
+      <c r="G28" s="0">
+        <v>2560</v>
+      </c>
+      <c r="H28" s="0">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B29" s="0">
+        <v>736</v>
+      </c>
+      <c r="C29" s="0">
+        <v>1358</v>
+      </c>
+      <c r="D29" s="0">
+        <v>1060</v>
+      </c>
+      <c r="E29" s="0">
+        <v>1686</v>
+      </c>
+      <c r="F29" s="0">
+        <v>2160</v>
+      </c>
+      <c r="G29" s="0">
+        <v>2560</v>
+      </c>
+      <c r="H29" s="0">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="B30" s="0">
+        <v>487</v>
+      </c>
+      <c r="C30" s="0">
+        <v>1545</v>
+      </c>
+      <c r="D30" s="0">
+        <v>1299</v>
+      </c>
+      <c r="E30" s="0">
+        <v>1473</v>
+      </c>
+      <c r="F30" s="0">
+        <v>2160</v>
+      </c>
+      <c r="G30" s="0">
+        <v>2560</v>
+      </c>
+      <c r="H30" s="0">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/config/acquisitionConfig/roi.csv.xlsx
+++ b/config/acquisitionConfig/roi.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="477">
   <si>
     <t>Angle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1459,6 +1459,18 @@
   </si>
   <si>
     <t>[600 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalibTof5000</t>
+  </si>
+  <si>
+    <t>[1024 1328 130 120]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[270 100]</t>
   </si>
 </sst>
 </file>
@@ -2712,7 +2724,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="B27" s="0">
         <v>709</v>
@@ -2736,13 +2748,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
     </row>
     <row r="28">

--- a/config/acquisitionConfig/roi.csv.xlsx
+++ b/config/acquisitionConfig/roi.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="489">
   <si>
     <t>Angle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1471,6 +1471,42 @@
   </si>
   <si>
     <t>[270 100]</t>
+  </si>
+  <si>
+    <t>NiLatticeDepthCalib</t>
+  </si>
+  <si>
+    <t>[1000 1407 130 100]</t>
+  </si>
+  <si>
+    <t>[3 1]</t>
+  </si>
+  <si>
+    <t>[170 100]</t>
+  </si>
+  <si>
+    <t>BMPDloopTof8000</t>
+  </si>
+  <si>
+    <t>[1012 1496 130 100]</t>
+  </si>
+  <si>
+    <t>[2 1]</t>
+  </si>
+  <si>
+    <t>[1000 100]</t>
+  </si>
+  <si>
+    <t>BMPDloopTof6000</t>
+  </si>
+  <si>
+    <t>[978 1433 200 100]</t>
+  </si>
+  <si>
+    <t>[2 1]</t>
+  </si>
+  <si>
+    <t>[800 100]</t>
   </si>
 </sst>
 </file>
@@ -1797,7 +1833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -2269,19 +2305,19 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>385</v>
+        <v>477</v>
       </c>
       <c r="B14" s="0">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="C14" s="0">
-        <v>1313</v>
+        <v>1328</v>
       </c>
       <c r="D14" s="0">
-        <v>1236</v>
+        <v>1341</v>
       </c>
       <c r="E14" s="0">
-        <v>1556</v>
+        <v>1541</v>
       </c>
       <c r="F14" s="0">
         <v>2160</v>
@@ -2293,13 +2329,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>386</v>
+        <v>478</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>387</v>
+        <v>479</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>388</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15">
@@ -2549,19 +2585,19 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>181</v>
+        <v>481</v>
       </c>
       <c r="B22" s="0">
-        <v>703</v>
+        <v>463</v>
       </c>
       <c r="C22" s="0">
-        <v>1785</v>
+        <v>1645</v>
       </c>
       <c r="D22" s="0">
-        <v>1490</v>
+        <v>1476</v>
       </c>
       <c r="E22" s="0">
-        <v>1668</v>
+        <v>1596</v>
       </c>
       <c r="F22" s="0">
         <v>2160</v>
@@ -2570,16 +2606,16 @@
         <v>2560</v>
       </c>
       <c r="H22" s="0">
-        <v>349.10000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>182</v>
+        <v>482</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>183</v>
+        <v>483</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>184</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23">
@@ -2860,6 +2896,41 @@
       </c>
       <c r="K30" s="0" t="s">
         <v>472</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="B31" s="0">
+        <v>476</v>
+      </c>
+      <c r="C31" s="0">
+        <v>1568</v>
+      </c>
+      <c r="D31" s="0">
+        <v>1334</v>
+      </c>
+      <c r="E31" s="0">
+        <v>1608</v>
+      </c>
+      <c r="F31" s="0">
+        <v>2160</v>
+      </c>
+      <c r="G31" s="0">
+        <v>2560</v>
+      </c>
+      <c r="H31" s="0">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>

--- a/config/acquisitionConfig/roi.csv.xlsx
+++ b/config/acquisitionConfig/roi.csv.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="513">
   <si>
     <t>Angle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1507,6 +1507,78 @@
   </si>
   <si>
     <t>[800 100]</t>
+  </si>
+  <si>
+    <t>Bec</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>BecCameraSBB</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>BecCameraSBB</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>SideOdtCamera</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>SideOdtCamera</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
+  </si>
+  <si>
+    <t>NiLattice</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>[100 100]</t>
   </si>
 </sst>
 </file>
@@ -1993,19 +2065,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>369</v>
+        <v>489</v>
       </c>
       <c r="B5" s="0">
-        <v>911</v>
+        <v>896</v>
       </c>
       <c r="C5" s="0">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D5" s="0">
-        <v>1235</v>
+        <v>1161</v>
       </c>
       <c r="E5" s="0">
-        <v>1511</v>
+        <v>1453</v>
       </c>
       <c r="F5" s="0">
         <v>2160</v>
@@ -2017,62 +2089,65 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>370</v>
+        <v>490</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>371</v>
+        <v>491</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>372</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>301</v>
-      </c>
-      <c r="C6">
-        <v>645</v>
-      </c>
-      <c r="D6">
-        <v>654</v>
-      </c>
-      <c r="E6">
-        <v>1018</v>
-      </c>
-      <c r="F6">
+      <c r="A6" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="B6" s="0">
+        <v>436</v>
+      </c>
+      <c r="C6" s="0">
+        <v>562</v>
+      </c>
+      <c r="D6" s="0">
+        <v>825</v>
+      </c>
+      <c r="E6" s="0">
+        <v>963</v>
+      </c>
+      <c r="F6" s="0">
         <v>1080</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>1920</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="0">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
+      <c r="I6" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>365</v>
+        <v>509</v>
       </c>
       <c r="B7" s="0">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="C7" s="0">
-        <v>1372</v>
+        <v>1393</v>
       </c>
       <c r="D7" s="0">
-        <v>1286</v>
+        <v>1233</v>
       </c>
       <c r="E7" s="0">
-        <v>1442</v>
+        <v>1369</v>
       </c>
       <c r="F7" s="0">
         <v>2160</v>
@@ -2084,13 +2159,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>366</v>
+        <v>510</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>367</v>
+        <v>511</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>368</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8">
@@ -2515,19 +2590,19 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>89</v>
+        <v>497</v>
       </c>
       <c r="B20" s="0">
-        <v>243</v>
+        <v>447</v>
       </c>
       <c r="C20" s="0">
-        <v>583</v>
+        <v>735</v>
       </c>
       <c r="D20" s="0">
-        <v>678</v>
+        <v>921</v>
       </c>
       <c r="E20" s="0">
-        <v>988</v>
+        <v>1203</v>
       </c>
       <c r="F20" s="0">
         <v>1080</v>
@@ -2539,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>90</v>
+        <v>498</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>91</v>
+        <v>499</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>92</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21">
